--- a/GroupAssignmentTestCases.xlsx
+++ b/GroupAssignmentTestCases.xlsx
@@ -575,7 +575,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GroupAssignmentTestCases.xlsx
+++ b/GroupAssignmentTestCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t xml:space="preserve">Test  suite ID </t>
   </si>
@@ -141,16 +141,7 @@
     <t>TC010</t>
   </si>
   <si>
-    <t>To verify that item in the order list can be showed to a customer successfully</t>
-  </si>
-  <si>
     <t>To verify that meals can be added to the order list sucessfully</t>
-  </si>
-  <si>
-    <t>To verify invalid entries will not cause application to crush</t>
-  </si>
-  <si>
-    <t>To verify that invalid security code will not cause application to crush</t>
   </si>
   <si>
     <t>To verify if expired credit card date will not cause credit card to be accepted by the system</t>
@@ -194,6 +185,21 @@
   </si>
   <si>
     <t>Ademir Gotov</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>To verify that allItems can be removed from the list</t>
+  </si>
+  <si>
+    <t>To verify application validation of name and numbers</t>
+  </si>
+  <si>
+    <t>To verify that prefix validation</t>
   </si>
 </sst>
 </file>
@@ -201,7 +207,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -261,10 +267,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -574,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,22 +664,25 @@
         <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M2" s="5">
         <v>42481</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O2" s="5">
         <v>42481</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -687,22 +696,25 @@
         <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M3" s="5">
         <v>42481</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O3" s="5">
         <v>42481</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="90" x14ac:dyDescent="0.25">
@@ -716,22 +728,25 @@
         <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M4" s="5">
         <v>42481</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O4" s="5">
         <v>42481</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
@@ -745,25 +760,28 @@
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M5" s="5">
         <v>42481</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O5" s="5">
         <v>42481</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -771,25 +789,28 @@
         <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M6" s="5">
         <v>42481</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O6" s="5">
         <v>42481</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
@@ -800,28 +821,31 @@
         <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M7" s="5">
         <v>42481</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O7" s="5">
         <v>42481</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -829,28 +853,31 @@
         <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M8" s="5">
         <v>42481</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O8" s="5">
         <v>42481</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -858,25 +885,28 @@
         <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="5">
+        <v>42481</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="5">
+        <v>42481</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="5">
-        <v>42481</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O9" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
@@ -887,25 +917,28 @@
         <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>55</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M10" s="5">
         <v>42481</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O10" s="5">
         <v>42481</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="90" x14ac:dyDescent="0.25">
@@ -916,25 +949,28 @@
         <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M11" s="5">
         <v>42481</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O11" s="5">
         <v>42481</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/GroupAssignmentTestCases.xlsx
+++ b/GroupAssignmentTestCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="86">
   <si>
     <t xml:space="preserve">Test  suite ID </t>
   </si>
@@ -187,19 +187,600 @@
     <t>Ademir Gotov</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>To verify that allItems can be removed from the list</t>
-  </si>
-  <si>
-    <t>To verify application validation of name and numbers</t>
-  </si>
-  <si>
     <t>To verify that prefix validation</t>
+  </si>
+  <si>
+    <t>To verify that all Items can be removed from the list</t>
+  </si>
+  <si>
+    <t>To verify application validators of name and number fields</t>
+  </si>
+  <si>
+    <t>1.Application is started      2.Order list is empty</t>
+  </si>
+  <si>
+    <t>1.User selects meals from the item list                                       2.User presses "Add" button in order to add meal to the order list</t>
+  </si>
+  <si>
+    <t>1.User selects the item he wish to remove from the order list                              2.User presses "Remove" buttom to remove selected item from the order list</t>
+  </si>
+  <si>
+    <t>1.User selects another item 2.User presses "Add" button to add selected item to the order list</t>
+  </si>
+  <si>
+    <t>1.User presses "Clear List" button in order to remove all items from the list</t>
+  </si>
+  <si>
+    <t>1.User selects the pizza from the list of items                    2.User selects the size of pizza                                          3.User presses "Add" button to add selected item to the order list</t>
+  </si>
+  <si>
+    <t>1.User selects an item he wish to add from the list of items                                     2.User presses "Add" button to add selected item to the order list</t>
+  </si>
+  <si>
+    <t>1.Application is started      2.Order list is populated with one or more items</t>
+  </si>
+  <si>
+    <t>1.Application is started      2.Order list is populated with one or more items       3.Credit card form is launched</t>
+  </si>
+  <si>
+    <t>1.User fills in the entries of credit card                                2.User presses "Purchase" button</t>
+  </si>
+  <si>
+    <t>Small size pizza</t>
+  </si>
+  <si>
+    <t>Slice of pizza</t>
+  </si>
+  <si>
+    <t>Slice of pizza, drink in a bottle, large size pizza, small size drink</t>
+  </si>
+  <si>
+    <t>Slice of pizza, drink in a bottle</t>
+  </si>
+  <si>
+    <t>Meal of angus cheeseburger and drink in a bottle</t>
+  </si>
+  <si>
+    <t>Case 1: Credit card with correctly intered values       Case 2: Credit card with incorrectly intered values</t>
+  </si>
+  <si>
+    <t>Case 1: Credit card with correctly intered prefix       Case 2: Credit card with incorrectly intered prefix</t>
+  </si>
+  <si>
+    <t>Case 1: Credit card with incorrectly intered name       Case 2: Credit card with incorrectly intered credit card number                                       Case 3: Credit card with incorectly entered security code                                            Case 4: Credit card with correctly intered values</t>
+  </si>
+  <si>
+    <t>Case 1: Expired credit card       Case 2: Valid credit card</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Case 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value is returned                          Case 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value is returned</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Case 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value is returned                          Case 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value is returned</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Case 1: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value is returned                          Case 2: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value is returned                      Case 3: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value is returned                          Case 4: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> value is returned</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Meal is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>added</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the order list                     2.Order list size is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>changed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.All items are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>removed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the list 2.Order list size </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>changed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Drink in a bottle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>removed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the order list                    2.Order list size </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>changed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total price has </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>changed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Small size pizza successfully </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>added</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the prder list</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Slice of pizza is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>added</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the order list</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -209,7 +790,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +802,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -580,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +1242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -661,13 +1250,22 @@
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>54</v>
@@ -685,7 +1283,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -693,13 +1291,22 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>54</v>
@@ -717,7 +1324,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -731,7 +1338,16 @@
         <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>54</v>
@@ -749,7 +1365,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -763,7 +1379,16 @@
         <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>54</v>
@@ -781,7 +1406,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -789,13 +1414,22 @@
         <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>54</v>
@@ -813,7 +1447,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -827,7 +1461,16 @@
         <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>54</v>
@@ -845,7 +1488,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -853,13 +1496,22 @@
         <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>54</v>
@@ -877,7 +1529,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -885,13 +1537,22 @@
         <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>54</v>
@@ -923,7 +1584,16 @@
         <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>54</v>
@@ -955,7 +1625,16 @@
         <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>54</v>

--- a/GroupAssignmentTestCases.xlsx
+++ b/GroupAssignmentTestCases.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -115,10 +114,6 @@
     <t>To verify that user is not being able to purchase items from order list with a balance less than total price of items</t>
   </si>
   <si>
-    <t>OS: Windows 8.1
-Browser: Chrome 41</t>
-  </si>
-  <si>
     <t>To verify that prefix validation</t>
   </si>
   <si>
@@ -252,6 +247,10 @@
   </si>
   <si>
     <t>Sumanth Yerra</t>
+  </si>
+  <si>
+    <t>OS: Windows 7
+IDE: Eclipse Luna</t>
   </si>
 </sst>
 </file>
@@ -638,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,40 +722,40 @@
         <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="L2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="5">
+        <v>42481</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="5">
+        <v>42481</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="M2" s="5">
-        <v>42481</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -770,40 +769,40 @@
         <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="5">
+        <v>42481</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="O3" s="5">
+        <v>42481</v>
+      </c>
+      <c r="P3" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="M3" s="5">
-        <v>42481</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -817,40 +816,40 @@
         <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="5">
+        <v>42481</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" s="5">
+        <v>42481</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="M4" s="5">
-        <v>42481</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="90" x14ac:dyDescent="0.25">
@@ -864,40 +863,40 @@
         <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="5">
+        <v>42481</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="O5" s="5">
+        <v>42481</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="M5" s="5">
-        <v>42481</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="60" x14ac:dyDescent="0.25">
@@ -908,43 +907,43 @@
         <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="5">
+        <v>42481</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="O6" s="5">
+        <v>42481</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="M6" s="5">
-        <v>42481</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="75" x14ac:dyDescent="0.25">
@@ -958,40 +957,40 @@
         <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="G7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="5">
+        <v>42481</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="O7" s="5">
+        <v>42481</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="M7" s="5">
-        <v>42481</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O7" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
@@ -1002,43 +1001,43 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="5">
+        <v>42481</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O8" s="5">
+        <v>42481</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="M8" s="5">
-        <v>42481</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="150" x14ac:dyDescent="0.25">
@@ -1049,43 +1048,43 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="5">
+        <v>42481</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="O9" s="5">
+        <v>42481</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="M9" s="5">
-        <v>42481</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O9" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
@@ -1099,40 +1098,40 @@
         <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="5">
+        <v>42481</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="O10" s="5">
+        <v>42481</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="M10" s="5">
-        <v>42481</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O10" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="105" x14ac:dyDescent="0.25">
@@ -1146,40 +1145,40 @@
         <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="5">
+        <v>42481</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="O11" s="5">
+        <v>42481</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="M11" s="5">
-        <v>42481</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/GroupAssignmentTestCases.xlsx
+++ b/GroupAssignmentTestCases.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
-  <si>
-    <t xml:space="preserve">Test  suite ID </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
   <si>
     <t xml:space="preserve">Test  case ID </t>
   </si>
@@ -30,9 +27,6 @@
     <t>Test Summary</t>
   </si>
   <si>
-    <t>Related Requirement</t>
-  </si>
-  <si>
     <t>Prerequisites</t>
   </si>
   <si>
@@ -51,9 +45,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Remarks</t>
-  </si>
-  <si>
     <t>Created by</t>
   </si>
   <si>
@@ -69,15 +60,9 @@
     <t>Environment</t>
   </si>
   <si>
-    <t>TS001</t>
-  </si>
-  <si>
     <t>TC001</t>
   </si>
   <si>
-    <t>TS002</t>
-  </si>
-  <si>
     <t>TC002</t>
   </si>
   <si>
@@ -135,9 +120,6 @@
     <t>1.User selects another item 2.User presses "Add" button to add selected item to the order list</t>
   </si>
   <si>
-    <t>1.User presses "Clear List" button in order to remove all items from the list</t>
-  </si>
-  <si>
     <t>1.User selects the pizza from the list of items                    2.User selects the size of pizza                                          3.User presses "Add" button to add selected item to the order list</t>
   </si>
   <si>
@@ -177,24 +159,6 @@
     <t>Case 1: Expired credit card       Case 2: Valid credit card</t>
   </si>
   <si>
-    <t>1.All items are removed from list if order list is not empty                                                                                           2.Message "There is nothing to remove" is displayed if list is empty</t>
-  </si>
-  <si>
-    <t>1.Total price should be changed if user added new item to the list of items 2.Message "Please select one of the following items" is displayed if user did not select any items</t>
-  </si>
-  <si>
-    <t>1.Small size pizza should successfully be added to the order list if user selected one of the items in the list of items                                                     2.Message "Please enter select one of the following items" is displayed if user did not select any items</t>
-  </si>
-  <si>
-    <t>1.Slice of pizza should successfully be added to the order list if user selected one of the items in the list of items                                                     2.Message "Please select one of the following items" is displayed if user did not select any items</t>
-  </si>
-  <si>
-    <t>This is a sample test case.</t>
-  </si>
-  <si>
-    <t>1.Drink in a bottle is removed from list if user selected it                                                                                           2.Message "Please select one of the following items from the order list" is displayed if user did not select any items</t>
-  </si>
-  <si>
     <t>Meal of angus burger and drink in a bottle</t>
   </si>
   <si>
@@ -204,9 +168,6 @@
     <t>1.Credit card is being charged if credit card number with correct prefix is entered                                                                    2.Message "Not enough funds on credit card, please add more funds" appears if credit card balance is less than total price</t>
   </si>
   <si>
-    <t>1.Credit card is being charged if credit card number with correct prefix is entered                                                                    2.Message "Incorrect credentials, please enter correct credentials" appears if credit card number isn't entered</t>
-  </si>
-  <si>
     <t>1.Total price is not changed if user did not added items to the order list                                            2.Total price is not changed if user added items to the order list</t>
   </si>
   <si>
@@ -235,9 +196,6 @@
   </si>
   <si>
     <t>1.Credit card is charged if correct credit card expiration date is entered                                  2.Credit card is not charged if incorrect credit card expiration date is entered; expected message is displayed</t>
-  </si>
-  <si>
-    <t>1.Credit card is charged if credit card balance is greater than total price items in the order list                                                                        2.Credit card is not charged if credit card balance lesser than total price of items in the order list; expected message is displayed</t>
   </si>
   <si>
     <t>Pass</t>
@@ -251,6 +209,45 @@
   <si>
     <t>OS: Windows 7
 IDE: Eclipse Luna</t>
+  </si>
+  <si>
+    <t>1.User presses "Clear" button in order to remove all items from the list</t>
+  </si>
+  <si>
+    <t>1.User fills in the entries of credit card                                2.User presses "Check out" button</t>
+  </si>
+  <si>
+    <t>1.Slice of pizza should successfully be added to the order list if user selected one of the items in the list of items                                                     2.Message "Please select one of the items" is displayed if user did not select any items</t>
+  </si>
+  <si>
+    <t>1.Small size pizza should successfully be added to the order list if user selected one of the items in the list of items                                                     2.Message "Please select one of the items" is displayed if user did not select any items</t>
+  </si>
+  <si>
+    <t>1.Total price should be changed if user added new item to the list of items 2.Message "Please select one of the items" is displayed if user did not select any items</t>
+  </si>
+  <si>
+    <t>1.Drink in a bottle is removed from list if user selected it                                                                                           2.Message "No items in the order list" is displayed if user did not select any items</t>
+  </si>
+  <si>
+    <t>1.All items are removed from list if order list is not empty                                                                                           2.Message "Order is cleared" is displayed if list is empty</t>
+  </si>
+  <si>
+    <t>1.Credit card is being charged if credit card number with correct prefix is entered                                                                    2.Message "Incorrect or missing credentials, please enter correct credentials" appears if credit card number isn't entered</t>
+  </si>
+  <si>
+    <t>1.Credit card is charged if credit card balance is greater than total price items in the order list                                                                        2.Credit card is not charged if credit card balance lesser than total price of items in the order list; expected message is not displayed</t>
+  </si>
+  <si>
+    <t>TC007</t>
+  </si>
+  <si>
+    <t>TC008</t>
+  </si>
+  <si>
+    <t>TC009</t>
+  </si>
+  <si>
+    <t>TC010</t>
   </si>
 </sst>
 </file>
@@ -307,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -323,9 +320,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -635,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +655,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,496 +683,427 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:14" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="5">
+        <v>42481</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="5">
+        <v>42481</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="5">
+        <v>42481</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="5">
+        <v>42481</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" s="5">
-        <v>42481</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="5">
-        <v>42481</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="5">
+        <v>42481</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="5">
+        <v>42481</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="5">
+        <v>42481</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="5">
+        <v>42481</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="5">
-        <v>42481</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" s="5">
-        <v>42481</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O5" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="5">
+        <v>42481</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6" s="5">
+        <v>42481</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="5">
+        <v>42481</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="5">
+        <v>42481</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="5">
+        <v>42481</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="5">
+        <v>42481</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="5">
+        <v>42481</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="5">
+        <v>42481</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="5">
+        <v>42481</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="5">
+        <v>42481</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="M6" s="5">
-        <v>42481</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="5">
-        <v>42481</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8" s="5">
-        <v>42481</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M9" s="5">
-        <v>42481</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O9" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="M10" s="5">
-        <v>42481</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O10" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="5">
+        <v>42481</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="M11" s="5">
         <v>42481</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" s="5">
-        <v>42481</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>76</v>
+      <c r="N11" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/GroupAssignmentTestCases.xlsx
+++ b/GroupAssignmentTestCases.xlsx
@@ -632,7 +632,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
